--- a/data/update65.xlsx
+++ b/data/update65.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\hummaps-batch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C51FAE-573A-4825-9440-538E96BCBC4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76243692-7F9B-4BBA-8FC0-05FF8B2DCC71}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="435" windowWidth="25410" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="105" windowWidth="25410" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,20 @@
   <definedNames>
     <definedName name="SurveyorFullname">OFFSET(#REF!,1,0,COUNTA(#REF!)-1,1)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="854">
   <si>
     <t>MAP_ID</t>
   </si>
@@ -2325,6 +2333,282 @@
   </si>
   <si>
     <t>7N.1E.30.M; 7N.1E.31.AEI; 7N.1W.25,36</t>
+  </si>
+  <si>
+    <t>1/9/2018</t>
+  </si>
+  <si>
+    <t>2/7/2018</t>
+  </si>
+  <si>
+    <t>2/8/2018</t>
+  </si>
+  <si>
+    <t>4/2/2018</t>
+  </si>
+  <si>
+    <t>4/9/2018</t>
+  </si>
+  <si>
+    <t>4/12/2018</t>
+  </si>
+  <si>
+    <t>4/20/2018</t>
+  </si>
+  <si>
+    <t>4/24/2018</t>
+  </si>
+  <si>
+    <t>5/1/2018</t>
+  </si>
+  <si>
+    <t>7/13/2018</t>
+  </si>
+  <si>
+    <t>7/31/2018</t>
+  </si>
+  <si>
+    <t>8/1/2018</t>
+  </si>
+  <si>
+    <t>9/5/2018</t>
+  </si>
+  <si>
+    <t>9/10/2018</t>
+  </si>
+  <si>
+    <t>10/2/2018</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>10/30/2018</t>
+  </si>
+  <si>
+    <t>10/31/2018</t>
+  </si>
+  <si>
+    <t>12/10/2018</t>
+  </si>
+  <si>
+    <t>12/14/2018</t>
+  </si>
+  <si>
+    <t>10/17/1994</t>
+  </si>
+  <si>
+    <t>2/21/2018</t>
+  </si>
+  <si>
+    <t>5/3/2018</t>
+  </si>
+  <si>
+    <t>5/25/2018</t>
+  </si>
+  <si>
+    <t>8/7/2018</t>
+  </si>
+  <si>
+    <t>8/24/2018</t>
+  </si>
+  <si>
+    <t>8/27/2018</t>
+  </si>
+  <si>
+    <t>12/7/2018</t>
+  </si>
+  <si>
+    <t>12/12/2018</t>
+  </si>
+  <si>
+    <t>12/27/2018</t>
+  </si>
+  <si>
+    <t>12/31/2018</t>
+  </si>
+  <si>
+    <t>1/31/2018</t>
+  </si>
+  <si>
+    <t>7/26/2018</t>
+  </si>
+  <si>
+    <t>11/9/2018</t>
+  </si>
+  <si>
+    <t>5/30/1997</t>
+  </si>
+  <si>
+    <t>1/11/2018</t>
+  </si>
+  <si>
+    <t>1/18/2018</t>
+  </si>
+  <si>
+    <t>1/23/2018</t>
+  </si>
+  <si>
+    <t>1/30/2018</t>
+  </si>
+  <si>
+    <t>2/9/2018</t>
+  </si>
+  <si>
+    <t>2/13/2018</t>
+  </si>
+  <si>
+    <t>2/16/2018</t>
+  </si>
+  <si>
+    <t>3/2/2018</t>
+  </si>
+  <si>
+    <t>3/15/2018</t>
+  </si>
+  <si>
+    <t>3/20/2018</t>
+  </si>
+  <si>
+    <t>3/26/2018</t>
+  </si>
+  <si>
+    <t>4/4/2018</t>
+  </si>
+  <si>
+    <t>4/10/2018</t>
+  </si>
+  <si>
+    <t>4/11/2018</t>
+  </si>
+  <si>
+    <t>5/8/2018</t>
+  </si>
+  <si>
+    <t>6/5/2018</t>
+  </si>
+  <si>
+    <t>6/25/2018</t>
+  </si>
+  <si>
+    <t>7/20/2018</t>
+  </si>
+  <si>
+    <t>8/15/2018</t>
+  </si>
+  <si>
+    <t>8/16/2018</t>
+  </si>
+  <si>
+    <t>8/29/2018</t>
+  </si>
+  <si>
+    <t>9/11/2018</t>
+  </si>
+  <si>
+    <t>9/19/2018</t>
+  </si>
+  <si>
+    <t>9/21/2018</t>
+  </si>
+  <si>
+    <t>9/27/2018</t>
+  </si>
+  <si>
+    <t>10/11/2018</t>
+  </si>
+  <si>
+    <t>10/29/2018</t>
+  </si>
+  <si>
+    <t>11/1/2018</t>
+  </si>
+  <si>
+    <t>11/19/2018</t>
+  </si>
+  <si>
+    <t>6/27/2018</t>
+  </si>
+  <si>
+    <t>3/20/1950</t>
+  </si>
+  <si>
+    <t>4/6/1959</t>
+  </si>
+  <si>
+    <t>6/1/1955</t>
+  </si>
+  <si>
+    <t>2/1/1966</t>
+  </si>
+  <si>
+    <t>2/1/1934</t>
+  </si>
+  <si>
+    <t>4/30/1948</t>
+  </si>
+  <si>
+    <t>4/7/1951</t>
+  </si>
+  <si>
+    <t>6/15/1960</t>
+  </si>
+  <si>
+    <t>7/1/1923</t>
+  </si>
+  <si>
+    <t>6/15/1957</t>
+  </si>
+  <si>
+    <t>1/23/1956</t>
+  </si>
+  <si>
+    <t>9/3/1953</t>
+  </si>
+  <si>
+    <t>10/1/1955</t>
+  </si>
+  <si>
+    <t>8/28/1953</t>
+  </si>
+  <si>
+    <t>12/2/1964</t>
+  </si>
+  <si>
+    <t>9/1/1942</t>
+  </si>
+  <si>
+    <t>5/12/1955</t>
+  </si>
+  <si>
+    <t>4/21/1954</t>
+  </si>
+  <si>
+    <t>11/8/1951</t>
+  </si>
+  <si>
+    <t>2/1/1949</t>
+  </si>
+  <si>
+    <t>6/22/1953</t>
+  </si>
+  <si>
+    <t>10/23/1950</t>
+  </si>
+  <si>
+    <t>11/10/1947</t>
+  </si>
+  <si>
+    <t>6/1/1959</t>
+  </si>
+  <si>
+    <t>11/1/1961</t>
+  </si>
+  <si>
+    <t>4/13/1954</t>
+  </si>
+  <si>
+    <t>7/29/2015</t>
   </si>
 </sst>
 </file>
@@ -2409,7 +2693,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2458,6 +2742,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2822,18 +3110,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="17" customWidth="1"/>
     <col min="6" max="6" width="67.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="12" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
     <col min="10" max="10" width="100.140625" customWidth="1"/>
@@ -2841,25 +3128,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -2876,26 +3163,26 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="17">
         <v>16155</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="17">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="17">
         <v>98</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="17">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1">
-        <v>43109</v>
+      <c r="G3" s="12" t="s">
+        <v>762</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -2908,26 +3195,26 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="17">
         <v>16156</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="17">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="17">
         <v>99</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="17">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1">
-        <v>43109</v>
+      <c r="G4" s="12" t="s">
+        <v>762</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -2937,26 +3224,26 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="17">
         <v>16157</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="17">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="17">
         <v>100</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1">
-        <v>43109</v>
+      <c r="G5" s="12" t="s">
+        <v>762</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -2966,26 +3253,26 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="17">
         <v>16179</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="17">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1">
-        <v>43138</v>
+      <c r="G6" s="12" t="s">
+        <v>763</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -2995,26 +3282,26 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="17">
         <v>16180</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="17">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="17">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1">
-        <v>43139</v>
+      <c r="G7" s="12" t="s">
+        <v>764</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -3027,26 +3314,26 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="17">
         <v>16181</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="17">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="17">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="17">
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1">
-        <v>43139</v>
+      <c r="G8" s="12" t="s">
+        <v>764</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -3059,26 +3346,26 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="17">
         <v>16258</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="17">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="17">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="17">
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1">
-        <v>43192</v>
+      <c r="G9" s="12" t="s">
+        <v>765</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -3091,26 +3378,26 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="17">
         <v>16259</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="17">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="17">
         <v>5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="17">
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="1">
-        <v>43192</v>
+      <c r="G10" s="12" t="s">
+        <v>765</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -3123,26 +3410,26 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="17">
         <v>16260</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="17">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="17">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="17">
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="1">
-        <v>43199</v>
+      <c r="G11" s="12" t="s">
+        <v>766</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -3155,26 +3442,26 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="17">
         <v>16261</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="17">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="17">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="17">
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="1">
-        <v>43202</v>
+      <c r="G12" s="12" t="s">
+        <v>767</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -3187,26 +3474,26 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="17">
         <v>16277</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="17">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="17">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="17">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="1">
-        <v>43210</v>
+      <c r="G13" s="12" t="s">
+        <v>768</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -3219,26 +3506,26 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="17">
         <v>16278</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="17">
         <v>14</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="17">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="17">
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="1">
-        <v>43214</v>
+      <c r="G14" s="12" t="s">
+        <v>769</v>
       </c>
       <c r="H14" t="s">
         <v>39</v>
@@ -3248,26 +3535,26 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="17">
         <v>16279</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="17">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="17">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="17">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="1">
-        <v>43221</v>
+      <c r="G15" s="12" t="s">
+        <v>770</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -3280,26 +3567,26 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="17">
         <v>16280</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="17">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="17">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="17">
         <v>1</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="1">
-        <v>43221</v>
+      <c r="G16" s="12" t="s">
+        <v>770</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -3312,26 +3599,26 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="18">
         <v>16328</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="17">
         <v>14</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="17">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="1">
-        <v>43294</v>
+      <c r="G17" s="12" t="s">
+        <v>771</v>
       </c>
       <c r="H17" t="s">
         <v>46</v>
@@ -3341,26 +3628,26 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="18">
         <v>16329</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="17">
         <v>14</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="17">
         <v>13</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="17">
         <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="1">
-        <v>43312</v>
+      <c r="G18" s="12" t="s">
+        <v>772</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -3373,26 +3660,26 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="18">
         <v>16330</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="17">
         <v>14</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="17">
         <v>14</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="17">
         <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="1">
-        <v>43313</v>
+      <c r="G19" s="12" t="s">
+        <v>773</v>
       </c>
       <c r="H19" t="s">
         <v>51</v>
@@ -3405,26 +3692,26 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="18">
         <v>16331</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="17">
         <v>14</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="17">
         <v>15</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="17">
         <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="1">
-        <v>43348</v>
+      <c r="G20" s="12" t="s">
+        <v>774</v>
       </c>
       <c r="H20" t="s">
         <v>55</v>
@@ -3437,26 +3724,26 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="18">
         <v>16332</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="17">
         <v>14</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="17">
         <v>16</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="17">
         <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="1">
-        <v>43353</v>
+      <c r="G21" s="12" t="s">
+        <v>775</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
@@ -3469,26 +3756,26 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="18">
         <v>16333</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="17">
         <v>14</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="17">
         <v>17</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="17">
         <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="1">
-        <v>43375</v>
+      <c r="G22" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="H22" t="s">
         <v>62</v>
@@ -3501,26 +3788,26 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="18">
         <v>16334</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="17">
         <v>14</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="17">
         <v>18</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="17">
         <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="1">
-        <v>43375</v>
+      <c r="G23" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="H23" t="s">
         <v>62</v>
@@ -3533,26 +3820,26 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="18">
         <v>16335</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="17">
         <v>14</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="17">
         <v>19</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="17">
         <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="1">
-        <v>43383</v>
+      <c r="G24" s="12" t="s">
+        <v>777</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -3562,26 +3849,26 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="18">
         <v>16336</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="17">
         <v>14</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="17">
         <v>20</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="17">
         <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="1">
-        <v>43403</v>
+      <c r="G25" s="12" t="s">
+        <v>778</v>
       </c>
       <c r="H25" t="s">
         <v>69</v>
@@ -3591,26 +3878,26 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="18">
         <v>16337</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="17">
         <v>14</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="17">
         <v>21</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="17">
         <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="1">
-        <v>43403</v>
+      <c r="G26" s="12" t="s">
+        <v>778</v>
       </c>
       <c r="H26" t="s">
         <v>72</v>
@@ -3620,26 +3907,26 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="18">
         <v>16338</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="17">
         <v>14</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="17">
         <v>22</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="17">
         <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="1">
-        <v>43404</v>
+      <c r="G27" s="12" t="s">
+        <v>779</v>
       </c>
       <c r="H27" t="s">
         <v>75</v>
@@ -3652,26 +3939,26 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="18">
         <v>16339</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="17">
         <v>14</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="17">
         <v>23</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="17">
         <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="1">
-        <v>43404</v>
+      <c r="G28" s="12" t="s">
+        <v>779</v>
       </c>
       <c r="H28" t="s">
         <v>75</v>
@@ -3684,26 +3971,26 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="18">
         <v>16340</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="17">
         <v>14</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="17">
         <v>24</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="17">
         <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="1">
-        <v>43444</v>
+      <c r="G29" s="12" t="s">
+        <v>780</v>
       </c>
       <c r="H29" t="s">
         <v>55</v>
@@ -3716,26 +4003,26 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="18">
         <v>16341</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="17">
         <v>14</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="17">
         <v>25</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="17">
         <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="1">
-        <v>43448</v>
+      <c r="G30" s="12" t="s">
+        <v>781</v>
       </c>
       <c r="H30" t="s">
         <v>55</v>
@@ -3748,26 +4035,26 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="18">
         <v>16342</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="17">
         <v>14</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="17">
         <v>26</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="17">
         <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="1">
-        <v>43448</v>
+      <c r="G31" s="12" t="s">
+        <v>781</v>
       </c>
       <c r="H31" t="s">
         <v>55</v>
@@ -3780,26 +4067,26 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="18">
         <v>16343</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="17">
         <v>14</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="17">
         <v>27</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="17">
         <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="1">
-        <v>43448</v>
+      <c r="G32" s="12" t="s">
+        <v>781</v>
       </c>
       <c r="H32" t="s">
         <v>51</v>
@@ -3812,26 +4099,26 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="18">
         <v>16344</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="17">
         <v>14</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="17">
         <v>28</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="17">
         <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="1">
-        <v>43448</v>
+      <c r="G33" s="12" t="s">
+        <v>781</v>
       </c>
       <c r="H33" t="s">
         <v>93</v>
@@ -3841,26 +4128,26 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="17">
         <v>10250</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="17">
         <v>28</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="17">
         <v>29</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="17">
         <v>2</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="1">
-        <v>34624</v>
+      <c r="G35" s="12" t="s">
+        <v>782</v>
       </c>
       <c r="H35" t="s">
         <v>97</v>
@@ -3873,26 +4160,26 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="17">
         <v>16187</v>
       </c>
       <c r="B36" t="s">
         <v>95</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="17">
         <v>36</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="17">
         <v>78</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="17">
         <v>2</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="1">
-        <v>43152</v>
+      <c r="G36" s="12" t="s">
+        <v>783</v>
       </c>
       <c r="H36" t="s">
         <v>55</v>
@@ -3905,26 +4192,26 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="17">
         <v>16281</v>
       </c>
       <c r="B37" t="s">
         <v>95</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="17">
         <v>36</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="17">
         <v>80</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="17">
         <v>2</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="1">
-        <v>43210</v>
+      <c r="G37" s="12" t="s">
+        <v>768</v>
       </c>
       <c r="H37" t="s">
         <v>104</v>
@@ -3937,26 +4224,26 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="17">
         <v>16283</v>
       </c>
       <c r="B38" t="s">
         <v>95</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="17">
         <v>36</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="17">
         <v>82</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="17">
         <v>2</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="1">
-        <v>43223</v>
+      <c r="G38" s="12" t="s">
+        <v>784</v>
       </c>
       <c r="H38" t="s">
         <v>46</v>
@@ -3969,26 +4256,26 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="17">
         <v>16284</v>
       </c>
       <c r="B39" t="s">
         <v>95</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="17">
         <v>36</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="17">
         <v>84</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="17">
         <v>2</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G39" s="1">
-        <v>43245</v>
+      <c r="G39" s="12" t="s">
+        <v>785</v>
       </c>
       <c r="H39" t="s">
         <v>55</v>
@@ -4001,26 +4288,26 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="18">
         <v>16316</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="17">
         <v>36</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="17">
         <v>86</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="17">
         <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>113</v>
       </c>
-      <c r="G40" s="1">
-        <v>43319</v>
+      <c r="G40" s="12" t="s">
+        <v>786</v>
       </c>
       <c r="H40" t="s">
         <v>114</v>
@@ -4033,26 +4320,26 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="18">
         <v>16317</v>
       </c>
       <c r="B41" t="s">
         <v>95</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="17">
         <v>36</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="17">
         <v>89</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="17">
         <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>117</v>
       </c>
-      <c r="G41" s="1">
-        <v>43336</v>
+      <c r="G41" s="12" t="s">
+        <v>787</v>
       </c>
       <c r="H41" t="s">
         <v>17</v>
@@ -4065,26 +4352,26 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="18">
         <v>16318</v>
       </c>
       <c r="B42" t="s">
         <v>95</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="17">
         <v>36</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="17">
         <v>91</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="17">
         <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="1">
-        <v>43339</v>
+      <c r="G42" s="12" t="s">
+        <v>788</v>
       </c>
       <c r="H42" t="s">
         <v>55</v>
@@ -4097,26 +4384,26 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="18">
         <v>16319</v>
       </c>
       <c r="B43" t="s">
         <v>95</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="17">
         <v>36</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="17">
         <v>93</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="17">
         <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="1">
-        <v>43339</v>
+      <c r="G43" s="12" t="s">
+        <v>788</v>
       </c>
       <c r="H43" t="s">
         <v>124</v>
@@ -4129,26 +4416,26 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="18">
         <v>16320</v>
       </c>
       <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="17">
         <v>36</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="17">
         <v>95</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="17">
         <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>127</v>
       </c>
-      <c r="G44" s="1">
-        <v>43441</v>
+      <c r="G44" s="12" t="s">
+        <v>789</v>
       </c>
       <c r="H44" t="s">
         <v>55</v>
@@ -4161,26 +4448,26 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="18">
         <v>16321</v>
       </c>
       <c r="B45" t="s">
         <v>95</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="17">
         <v>36</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="17">
         <v>97</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="17">
         <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>130</v>
       </c>
-      <c r="G45" s="1">
-        <v>43446</v>
+      <c r="G45" s="12" t="s">
+        <v>790</v>
       </c>
       <c r="H45" t="s">
         <v>51</v>
@@ -4193,26 +4480,26 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="18">
         <v>16322</v>
       </c>
       <c r="B46" t="s">
         <v>95</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="17">
         <v>36</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="17">
         <v>99</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="17">
         <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>133</v>
       </c>
-      <c r="G46" s="1">
-        <v>43461</v>
+      <c r="G46" s="12" t="s">
+        <v>791</v>
       </c>
       <c r="H46" t="s">
         <v>55</v>
@@ -4225,26 +4512,26 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="18">
         <v>16323</v>
       </c>
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="17">
         <v>36</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="17">
         <v>101</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="17">
         <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>136</v>
       </c>
-      <c r="G47" s="1">
-        <v>43465</v>
+      <c r="G47" s="12" t="s">
+        <v>792</v>
       </c>
       <c r="H47" t="s">
         <v>97</v>
@@ -4257,19 +4544,19 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="17">
         <v>20000</v>
       </c>
       <c r="B49" t="s">
         <v>139</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="17">
         <v>2</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="17">
         <v>33</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="17">
         <v>1</v>
       </c>
       <c r="J49" t="s">
@@ -4277,19 +4564,19 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="17">
         <v>20001</v>
       </c>
       <c r="B50" t="s">
         <v>139</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="17">
         <v>2</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="17">
         <v>60</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="17">
         <v>1</v>
       </c>
       <c r="J50" t="s">
@@ -4297,19 +4584,19 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="17">
         <v>20002</v>
       </c>
       <c r="B51" t="s">
         <v>139</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="17">
         <v>3</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="17">
         <v>124</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="17">
         <v>1</v>
       </c>
       <c r="J51" t="s">
@@ -4317,26 +4604,26 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="17">
         <v>16169</v>
       </c>
       <c r="B52" t="s">
         <v>139</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="17">
         <v>25</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="17">
         <v>76</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="17">
         <v>3</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="1">
-        <v>43131</v>
+      <c r="G52" s="12" t="s">
+        <v>793</v>
       </c>
       <c r="H52" t="s">
         <v>142</v>
@@ -4349,26 +4636,26 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="18">
         <v>16324</v>
       </c>
       <c r="B53" t="s">
         <v>139</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="17">
         <v>25</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="17">
         <v>79</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="17">
         <v>17</v>
       </c>
       <c r="F53" t="s">
         <v>145</v>
       </c>
-      <c r="G53" s="1">
-        <v>43307</v>
+      <c r="G53" s="12" t="s">
+        <v>794</v>
       </c>
       <c r="H53" t="s">
         <v>55</v>
@@ -4381,26 +4668,26 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="18">
         <v>16325</v>
       </c>
       <c r="B54" t="s">
         <v>139</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="17">
         <v>25</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="17">
         <v>96</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="17">
         <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="1">
-        <v>43336</v>
+      <c r="G54" s="12" t="s">
+        <v>787</v>
       </c>
       <c r="H54" t="s">
         <v>72</v>
@@ -4413,26 +4700,26 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="18">
         <v>16326</v>
       </c>
       <c r="B55" t="s">
         <v>139</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="17">
         <v>25</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="17">
         <v>98</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="17">
         <v>5</v>
       </c>
       <c r="F55" t="s">
         <v>151</v>
       </c>
-      <c r="G55" s="1">
-        <v>43413</v>
+      <c r="G55" s="12" t="s">
+        <v>795</v>
       </c>
       <c r="H55" t="s">
         <v>55</v>
@@ -4445,26 +4732,26 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="18">
         <v>16327</v>
       </c>
       <c r="B56" t="s">
         <v>139</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="17">
         <v>25</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="17">
         <v>103</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="17">
         <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>154</v>
       </c>
-      <c r="G56" s="1">
-        <v>43448</v>
+      <c r="G56" s="12" t="s">
+        <v>781</v>
       </c>
       <c r="H56" t="s">
         <v>155</v>
@@ -4477,19 +4764,19 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="17">
         <v>20003</v>
       </c>
       <c r="B58" t="s">
         <v>158</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="17">
         <v>5</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="17">
         <v>39</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="17">
         <v>1</v>
       </c>
       <c r="J58" t="s">
@@ -4497,26 +4784,26 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="17">
         <v>6840</v>
       </c>
       <c r="B59" t="s">
         <v>158</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="17">
         <v>57</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="17">
         <v>123</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="17">
         <v>1</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G59" s="1">
-        <v>35580</v>
+      <c r="G59" s="12" t="s">
+        <v>796</v>
       </c>
       <c r="H59" t="s">
         <v>160</v>
@@ -4529,26 +4816,26 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="17">
         <v>16158</v>
       </c>
       <c r="B60" t="s">
         <v>158</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="17">
         <v>73</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="17">
         <v>44</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="17">
         <v>1</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G60" s="1">
-        <v>43111</v>
+      <c r="G60" s="12" t="s">
+        <v>797</v>
       </c>
       <c r="H60" t="s">
         <v>142</v>
@@ -4561,26 +4848,26 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="17">
         <v>16159</v>
       </c>
       <c r="B61" t="s">
         <v>158</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="17">
         <v>73</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="17">
         <v>45</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="17">
         <v>1</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G61" s="1">
-        <v>43118</v>
+      <c r="G61" s="12" t="s">
+        <v>798</v>
       </c>
       <c r="H61" t="s">
         <v>167</v>
@@ -4593,26 +4880,26 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="17">
         <v>16160</v>
       </c>
       <c r="B62" t="s">
         <v>158</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="17">
         <v>73</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="17">
         <v>46</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="17">
         <v>1</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G62" s="1">
-        <v>43123</v>
+      <c r="G62" s="12" t="s">
+        <v>799</v>
       </c>
       <c r="H62" t="s">
         <v>69</v>
@@ -4625,26 +4912,26 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="17">
         <v>16161</v>
       </c>
       <c r="B63" t="s">
         <v>158</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="17">
         <v>73</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="17">
         <v>47</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="17">
         <v>1</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G63" s="1">
-        <v>43123</v>
+      <c r="G63" s="12" t="s">
+        <v>799</v>
       </c>
       <c r="H63" t="s">
         <v>55</v>
@@ -4657,26 +4944,26 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="17">
         <v>16170</v>
       </c>
       <c r="B64" t="s">
         <v>158</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="17">
         <v>73</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="17">
         <v>48</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="17">
         <v>1</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G64" s="1">
-        <v>43130</v>
+      <c r="G64" s="12" t="s">
+        <v>800</v>
       </c>
       <c r="H64" t="s">
         <v>51</v>
@@ -4689,26 +4976,26 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="17">
         <v>16171</v>
       </c>
       <c r="B65" t="s">
         <v>158</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="17">
         <v>73</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="17">
         <v>49</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="17">
         <v>1</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G65" s="1">
-        <v>43139</v>
+      <c r="G65" s="12" t="s">
+        <v>764</v>
       </c>
       <c r="H65" t="s">
         <v>72</v>
@@ -4721,26 +5008,26 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="17">
         <v>16172</v>
       </c>
       <c r="B66" t="s">
         <v>158</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="17">
         <v>73</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="17">
         <v>50</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="17">
         <v>1</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="G66" s="1">
-        <v>43140</v>
+      <c r="G66" s="12" t="s">
+        <v>801</v>
       </c>
       <c r="H66" t="s">
         <v>93</v>
@@ -4753,26 +5040,26 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="17">
         <v>16173</v>
       </c>
       <c r="B67" t="s">
         <v>158</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="17">
         <v>73</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="17">
         <v>51</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="17">
         <v>1</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G67" s="1">
-        <v>43140</v>
+      <c r="G67" s="12" t="s">
+        <v>801</v>
       </c>
       <c r="H67" t="s">
         <v>93</v>
@@ -4785,26 +5072,26 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="17">
         <v>16174</v>
       </c>
       <c r="B68" t="s">
         <v>158</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="17">
         <v>73</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="17">
         <v>52</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="17">
         <v>2</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G68" s="1">
-        <v>43144</v>
+      <c r="G68" s="12" t="s">
+        <v>802</v>
       </c>
       <c r="H68" t="s">
         <v>189</v>
@@ -4817,26 +5104,26 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="17">
         <v>16175</v>
       </c>
       <c r="B69" t="s">
         <v>158</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="17">
         <v>73</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="17">
         <v>54</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="17">
         <v>1</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="1">
-        <v>43144</v>
+      <c r="G69" s="12" t="s">
+        <v>802</v>
       </c>
       <c r="H69" t="s">
         <v>69</v>
@@ -4849,26 +5136,26 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="17">
         <v>16176</v>
       </c>
       <c r="B70" t="s">
         <v>158</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="17">
         <v>73</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="17">
         <v>55</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="17">
         <v>1</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="G70" s="1">
-        <v>43147</v>
+      <c r="G70" s="12" t="s">
+        <v>803</v>
       </c>
       <c r="H70" t="s">
         <v>51</v>
@@ -4881,26 +5168,26 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="17">
         <v>16177</v>
       </c>
       <c r="B71" t="s">
         <v>158</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="17">
         <v>73</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="17">
         <v>56</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="17">
         <v>1</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="G71" s="1">
-        <v>43147</v>
+      <c r="G71" s="12" t="s">
+        <v>803</v>
       </c>
       <c r="H71" t="s">
         <v>51</v>
@@ -4913,26 +5200,26 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="17">
         <v>16178</v>
       </c>
       <c r="B72" t="s">
         <v>158</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="17">
         <v>73</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="17">
         <v>57</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="17">
         <v>1</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="G72" s="1">
-        <v>43147</v>
+      <c r="G72" s="12" t="s">
+        <v>803</v>
       </c>
       <c r="H72" t="s">
         <v>55</v>
@@ -4945,26 +5232,26 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="17">
         <v>16188</v>
       </c>
       <c r="B73" t="s">
         <v>158</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="17">
         <v>73</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="17">
         <v>58</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="17">
         <v>5</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="G73" s="1">
-        <v>43161</v>
+      <c r="G73" s="12" t="s">
+        <v>804</v>
       </c>
       <c r="H73" t="s">
         <v>55</v>
@@ -4977,26 +5264,26 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="17">
         <v>16251</v>
       </c>
       <c r="B74" t="s">
         <v>158</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="17">
         <v>73</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="17">
         <v>63</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="17">
         <v>1</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="G74" s="1">
-        <v>43174</v>
+      <c r="G74" s="12" t="s">
+        <v>805</v>
       </c>
       <c r="H74" t="s">
         <v>167</v>
@@ -5009,26 +5296,26 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="17">
         <v>16252</v>
       </c>
       <c r="B75" t="s">
         <v>158</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="17">
         <v>73</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="17">
         <v>64</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="17">
         <v>1</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="G75" s="1">
-        <v>43174</v>
+      <c r="G75" s="12" t="s">
+        <v>805</v>
       </c>
       <c r="H75" t="s">
         <v>55</v>
@@ -5041,26 +5328,26 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="17">
         <v>16253</v>
       </c>
       <c r="B76" t="s">
         <v>158</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="17">
         <v>73</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="17">
         <v>65</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="17">
         <v>1</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="G76" s="1">
-        <v>43174</v>
+      <c r="G76" s="12" t="s">
+        <v>805</v>
       </c>
       <c r="H76" t="s">
         <v>211</v>
@@ -5073,26 +5360,26 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="17">
         <v>16254</v>
       </c>
       <c r="B77" t="s">
         <v>158</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="17">
         <v>73</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="17">
         <v>66</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="17">
         <v>1</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G77" s="1">
-        <v>43174</v>
+      <c r="G77" s="12" t="s">
+        <v>805</v>
       </c>
       <c r="H77" t="s">
         <v>211</v>
@@ -5105,26 +5392,26 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="17">
         <v>16255</v>
       </c>
       <c r="B78" t="s">
         <v>158</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="17">
         <v>73</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="17">
         <v>67</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="17">
         <v>3</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G78" s="1">
-        <v>43174</v>
+      <c r="G78" s="12" t="s">
+        <v>805</v>
       </c>
       <c r="H78" t="s">
         <v>211</v>
@@ -5137,26 +5424,26 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="17">
         <v>16256</v>
       </c>
       <c r="B79" t="s">
         <v>158</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="17">
         <v>73</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="17">
         <v>70</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="17">
         <v>1</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="G79" s="1">
-        <v>43179</v>
+      <c r="G79" s="12" t="s">
+        <v>806</v>
       </c>
       <c r="H79" t="s">
         <v>55</v>
@@ -5169,26 +5456,26 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="17">
         <v>16257</v>
       </c>
       <c r="B80" t="s">
         <v>158</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="17">
         <v>73</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="17">
         <v>71</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="17">
         <v>2</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="G80" s="1">
-        <v>43179</v>
+      <c r="G80" s="12" t="s">
+        <v>806</v>
       </c>
       <c r="H80" t="s">
         <v>55</v>
@@ -5201,26 +5488,26 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="17">
         <v>16285</v>
       </c>
       <c r="B81" t="s">
         <v>158</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="17">
         <v>73</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="17">
         <v>73</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="17">
         <v>1</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="G81" s="1">
-        <v>43185</v>
+      <c r="G81" s="12" t="s">
+        <v>807</v>
       </c>
       <c r="H81" t="s">
         <v>46</v>
@@ -5233,26 +5520,26 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="17">
         <v>16286</v>
       </c>
       <c r="B82" t="s">
         <v>158</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="17">
         <v>73</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="17">
         <v>74</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="17">
         <v>1</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G82" s="1">
-        <v>43185</v>
+      <c r="G82" s="12" t="s">
+        <v>807</v>
       </c>
       <c r="H82" t="s">
         <v>46</v>
@@ -5265,26 +5552,26 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="17">
         <v>16287</v>
       </c>
       <c r="B83" t="s">
         <v>158</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="17">
         <v>73</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="17">
         <v>75</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="17">
         <v>2</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="G83" s="1">
-        <v>43185</v>
+      <c r="G83" s="12" t="s">
+        <v>807</v>
       </c>
       <c r="H83" t="s">
         <v>46</v>
@@ -5297,26 +5584,26 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="17">
         <v>16288</v>
       </c>
       <c r="B84" t="s">
         <v>158</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="17">
         <v>73</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="17">
         <v>77</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="17">
         <v>1</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>761</v>
       </c>
-      <c r="G84" s="1">
-        <v>43185</v>
+      <c r="G84" s="12" t="s">
+        <v>807</v>
       </c>
       <c r="H84" t="s">
         <v>46</v>
@@ -5329,26 +5616,26 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="17">
         <v>16289</v>
       </c>
       <c r="B85" t="s">
         <v>158</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="17">
         <v>73</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="17">
         <v>78</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="17">
         <v>1</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="G85" s="1">
-        <v>43185</v>
+      <c r="G85" s="12" t="s">
+        <v>807</v>
       </c>
       <c r="H85" t="s">
         <v>55</v>
@@ -5361,26 +5648,26 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="17">
         <v>16290</v>
       </c>
       <c r="B86" t="s">
         <v>158</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="17">
         <v>73</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="17">
         <v>79</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="17">
         <v>3</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G86" s="1">
-        <v>43194</v>
+      <c r="G86" s="12" t="s">
+        <v>808</v>
       </c>
       <c r="H86" t="s">
         <v>234</v>
@@ -5393,26 +5680,26 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="17">
         <v>16291</v>
       </c>
       <c r="B87" t="s">
         <v>158</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="17">
         <v>73</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="17">
         <v>82</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="17">
         <v>1</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="G87" s="1">
-        <v>43200</v>
+      <c r="G87" s="12" t="s">
+        <v>809</v>
       </c>
       <c r="H87" t="s">
         <v>55</v>
@@ -5425,26 +5712,26 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="17">
         <v>16292</v>
       </c>
       <c r="B88" t="s">
         <v>158</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="17">
         <v>73</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="17">
         <v>83</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="17">
         <v>1</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="G88" s="1">
-        <v>43200</v>
+      <c r="G88" s="12" t="s">
+        <v>809</v>
       </c>
       <c r="H88" t="s">
         <v>55</v>
@@ -5457,26 +5744,26 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="17">
         <v>16293</v>
       </c>
       <c r="B89" t="s">
         <v>158</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="17">
         <v>73</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="17">
         <v>84</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="17">
         <v>1</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="G89" s="1">
-        <v>43200</v>
+      <c r="G89" s="12" t="s">
+        <v>809</v>
       </c>
       <c r="H89" t="s">
         <v>104</v>
@@ -5489,26 +5776,26 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="17">
         <v>16294</v>
       </c>
       <c r="B90" t="s">
         <v>158</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="17">
         <v>73</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="17">
         <v>85</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="17">
         <v>1</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="G90" s="1">
-        <v>43200</v>
+      <c r="G90" s="12" t="s">
+        <v>809</v>
       </c>
       <c r="H90" t="s">
         <v>245</v>
@@ -5521,26 +5808,26 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="17">
         <v>16295</v>
       </c>
       <c r="B91" t="s">
         <v>158</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="17">
         <v>73</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="17">
         <v>86</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="17">
         <v>1</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="G91" s="1">
-        <v>43201</v>
+      <c r="G91" s="12" t="s">
+        <v>810</v>
       </c>
       <c r="H91" t="s">
         <v>142</v>
@@ -5553,26 +5840,26 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="17">
         <v>16296</v>
       </c>
       <c r="B92" t="s">
         <v>158</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="17">
         <v>73</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="17">
         <v>87</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="17">
         <v>1</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="G92" s="1">
-        <v>43201</v>
+      <c r="G92" s="12" t="s">
+        <v>810</v>
       </c>
       <c r="H92" t="s">
         <v>51</v>
@@ -5585,26 +5872,26 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="17">
         <v>16297</v>
       </c>
       <c r="B93" t="s">
         <v>158</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="17">
         <v>73</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="17">
         <v>88</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="17">
         <v>1</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="G93" s="1">
-        <v>43228</v>
+      <c r="G93" s="12" t="s">
+        <v>811</v>
       </c>
       <c r="H93" t="s">
         <v>93</v>
@@ -5617,26 +5904,26 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="17">
         <v>16298</v>
       </c>
       <c r="B94" t="s">
         <v>158</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="17">
         <v>73</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="17">
         <v>89</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="17">
         <v>1</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="G94" s="1">
-        <v>43228</v>
+      <c r="G94" s="12" t="s">
+        <v>811</v>
       </c>
       <c r="H94" t="s">
         <v>258</v>
@@ -5649,26 +5936,26 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="17">
         <v>16299</v>
       </c>
       <c r="B95" t="s">
         <v>158</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="17">
         <v>73</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="17">
         <v>90</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="17">
         <v>2</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G95" s="1">
-        <v>43228</v>
+      <c r="G95" s="12" t="s">
+        <v>811</v>
       </c>
       <c r="H95" t="s">
         <v>55</v>
@@ -5681,26 +5968,26 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="17">
         <v>16300</v>
       </c>
       <c r="B96" t="s">
         <v>158</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="17">
         <v>73</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="17">
         <v>92</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="17">
         <v>2</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G96" s="1">
-        <v>43245</v>
+      <c r="G96" s="12" t="s">
+        <v>785</v>
       </c>
       <c r="H96" t="s">
         <v>167</v>
@@ -5713,26 +6000,26 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="17">
         <v>16301</v>
       </c>
       <c r="B97" t="s">
         <v>158</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="17">
         <v>73</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="17">
         <v>94</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="17">
         <v>1</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G97" s="1">
-        <v>43245</v>
+      <c r="G97" s="12" t="s">
+        <v>785</v>
       </c>
       <c r="H97" t="s">
         <v>167</v>
@@ -5745,26 +6032,26 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="17">
         <v>16302</v>
       </c>
       <c r="B98" t="s">
         <v>158</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="17">
         <v>73</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="17">
         <v>95</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="17">
         <v>1</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="G98" s="1">
-        <v>43245</v>
+      <c r="G98" s="12" t="s">
+        <v>785</v>
       </c>
       <c r="H98" t="s">
         <v>55</v>
@@ -5777,26 +6064,26 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="17">
         <v>16303</v>
       </c>
       <c r="B99" t="s">
         <v>158</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="17">
         <v>73</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="17">
         <v>96</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="17">
         <v>1</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G99" s="1">
-        <v>43256</v>
+      <c r="G99" s="12" t="s">
+        <v>812</v>
       </c>
       <c r="H99" t="s">
         <v>97</v>
@@ -5809,26 +6096,26 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="17">
         <v>16313</v>
       </c>
       <c r="B100" t="s">
         <v>158</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="17">
         <v>73</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="17">
         <v>97</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="17">
         <v>1</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="G100" s="1">
-        <v>43276</v>
+      <c r="G100" s="12" t="s">
+        <v>813</v>
       </c>
       <c r="H100" t="s">
         <v>142</v>
@@ -5841,26 +6128,26 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="17">
         <v>16314</v>
       </c>
       <c r="B101" t="s">
         <v>158</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="17">
         <v>73</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="17">
         <v>98</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="17">
         <v>1</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="G101" s="1">
-        <v>43276</v>
+      <c r="G101" s="12" t="s">
+        <v>813</v>
       </c>
       <c r="H101" t="s">
         <v>55</v>
@@ -5873,26 +6160,26 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="18">
         <v>16345</v>
       </c>
       <c r="B102" t="s">
         <v>158</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="17">
         <v>73</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="17">
         <v>99</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="17">
         <v>1</v>
       </c>
       <c r="F102" t="s">
         <v>280</v>
       </c>
-      <c r="G102" s="1">
-        <v>43301</v>
+      <c r="G102" s="12" t="s">
+        <v>814</v>
       </c>
       <c r="H102" t="s">
         <v>46</v>
@@ -5905,26 +6192,26 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="18">
         <v>16346</v>
       </c>
       <c r="B103" t="s">
         <v>158</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="17">
         <v>73</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="17">
         <v>100</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="17">
         <v>1</v>
       </c>
       <c r="F103" t="s">
         <v>283</v>
       </c>
-      <c r="G103" s="1">
-        <v>43327</v>
+      <c r="G103" s="12" t="s">
+        <v>815</v>
       </c>
       <c r="H103" t="s">
         <v>97</v>
@@ -5937,26 +6224,26 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="A104" s="18">
         <v>16347</v>
       </c>
       <c r="B104" t="s">
         <v>158</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="17">
         <v>73</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="17">
         <v>101</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="17">
         <v>1</v>
       </c>
       <c r="F104" t="s">
         <v>286</v>
       </c>
-      <c r="G104" s="1">
-        <v>43327</v>
+      <c r="G104" s="12" t="s">
+        <v>815</v>
       </c>
       <c r="H104" t="s">
         <v>66</v>
@@ -5969,26 +6256,26 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="A105" s="18">
         <v>16348</v>
       </c>
       <c r="B105" t="s">
         <v>158</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="17">
         <v>73</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="17">
         <v>102</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="17">
         <v>1</v>
       </c>
       <c r="F105" t="s">
         <v>289</v>
       </c>
-      <c r="G105" s="1">
-        <v>43327</v>
+      <c r="G105" s="12" t="s">
+        <v>815</v>
       </c>
       <c r="H105" t="s">
         <v>55</v>
@@ -6001,26 +6288,26 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="18">
         <v>16349</v>
       </c>
       <c r="B106" t="s">
         <v>158</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="17">
         <v>73</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="17">
         <v>103</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="17">
         <v>1</v>
       </c>
       <c r="F106" t="s">
         <v>292</v>
       </c>
-      <c r="G106" s="1">
-        <v>43327</v>
+      <c r="G106" s="12" t="s">
+        <v>815</v>
       </c>
       <c r="H106" t="s">
         <v>55</v>
@@ -6033,26 +6320,26 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="A107" s="18">
         <v>16350</v>
       </c>
       <c r="B107" t="s">
         <v>158</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="17">
         <v>73</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="17">
         <v>104</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="17">
         <v>1</v>
       </c>
       <c r="F107" t="s">
         <v>295</v>
       </c>
-      <c r="G107" s="1">
-        <v>43327</v>
+      <c r="G107" s="12" t="s">
+        <v>815</v>
       </c>
       <c r="H107" t="s">
         <v>55</v>
@@ -6065,26 +6352,26 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="18">
         <v>16351</v>
       </c>
       <c r="B108" t="s">
         <v>158</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="17">
         <v>73</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="17">
         <v>105</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="17">
         <v>1</v>
       </c>
       <c r="F108" t="s">
         <v>298</v>
       </c>
-      <c r="G108" s="1">
-        <v>43327</v>
+      <c r="G108" s="12" t="s">
+        <v>815</v>
       </c>
       <c r="H108" t="s">
         <v>142</v>
@@ -6097,26 +6384,26 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="A109" s="18">
         <v>16352</v>
       </c>
       <c r="B109" t="s">
         <v>158</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="17">
         <v>73</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="17">
         <v>106</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="17">
         <v>2</v>
       </c>
       <c r="F109" t="s">
         <v>301</v>
       </c>
-      <c r="G109" s="1">
-        <v>43328</v>
+      <c r="G109" s="12" t="s">
+        <v>816</v>
       </c>
       <c r="H109" t="s">
         <v>124</v>
@@ -6129,26 +6416,26 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="18">
         <v>16353</v>
       </c>
       <c r="B110" t="s">
         <v>158</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="17">
         <v>73</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="17">
         <v>108</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="17">
         <v>1</v>
       </c>
       <c r="F110" t="s">
         <v>304</v>
       </c>
-      <c r="G110" s="1">
-        <v>43341</v>
+      <c r="G110" s="12" t="s">
+        <v>817</v>
       </c>
       <c r="H110" t="s">
         <v>55</v>
@@ -6161,26 +6448,26 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="A111" s="18">
         <v>16354</v>
       </c>
       <c r="B111" t="s">
         <v>158</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="17">
         <v>73</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="17">
         <v>109</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="17">
         <v>1</v>
       </c>
       <c r="F111" t="s">
         <v>307</v>
       </c>
-      <c r="G111" s="1">
-        <v>43341</v>
+      <c r="G111" s="12" t="s">
+        <v>817</v>
       </c>
       <c r="H111" t="s">
         <v>55</v>
@@ -6193,26 +6480,26 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="18">
         <v>16355</v>
       </c>
       <c r="B112" t="s">
         <v>158</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="17">
         <v>73</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="17">
         <v>110</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="17">
         <v>1</v>
       </c>
       <c r="F112" t="s">
         <v>310</v>
       </c>
-      <c r="G112" s="1">
-        <v>43341</v>
+      <c r="G112" s="12" t="s">
+        <v>817</v>
       </c>
       <c r="H112" t="s">
         <v>55</v>
@@ -6225,26 +6512,26 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="A113" s="18">
         <v>16356</v>
       </c>
       <c r="B113" t="s">
         <v>158</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="17">
         <v>73</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="17">
         <v>111</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="17">
         <v>1</v>
       </c>
       <c r="F113" t="s">
         <v>313</v>
       </c>
-      <c r="G113" s="1">
-        <v>43354</v>
+      <c r="G113" s="12" t="s">
+        <v>818</v>
       </c>
       <c r="H113" t="s">
         <v>93</v>
@@ -6257,26 +6544,26 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="18">
         <v>16357</v>
       </c>
       <c r="B114" t="s">
         <v>158</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="17">
         <v>73</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="17">
         <v>112</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="17">
         <v>1</v>
       </c>
       <c r="F114" t="s">
         <v>316</v>
       </c>
-      <c r="G114" s="1">
-        <v>43354</v>
+      <c r="G114" s="12" t="s">
+        <v>818</v>
       </c>
       <c r="H114" t="s">
         <v>51</v>
@@ -6289,26 +6576,26 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="A115" s="18">
         <v>16358</v>
       </c>
       <c r="B115" t="s">
         <v>158</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="17">
         <v>73</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="17">
         <v>113</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="17">
         <v>2</v>
       </c>
       <c r="F115" t="s">
         <v>319</v>
       </c>
-      <c r="G115" s="1">
-        <v>43354</v>
+      <c r="G115" s="12" t="s">
+        <v>818</v>
       </c>
       <c r="H115" t="s">
         <v>142</v>
@@ -6321,26 +6608,26 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="18">
         <v>16359</v>
       </c>
       <c r="B116" t="s">
         <v>158</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="17">
         <v>73</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="17">
         <v>115</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="17">
         <v>1</v>
       </c>
       <c r="F116" t="s">
         <v>322</v>
       </c>
-      <c r="G116" s="1">
-        <v>43354</v>
+      <c r="G116" s="12" t="s">
+        <v>818</v>
       </c>
       <c r="H116" t="s">
         <v>17</v>
@@ -6353,26 +6640,26 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="18">
         <v>16360</v>
       </c>
       <c r="B117" t="s">
         <v>158</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="17">
         <v>73</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="17">
         <v>116</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="17">
         <v>3</v>
       </c>
       <c r="F117" t="s">
         <v>325</v>
       </c>
-      <c r="G117" s="1">
-        <v>43362</v>
+      <c r="G117" s="12" t="s">
+        <v>819</v>
       </c>
       <c r="H117" t="s">
         <v>55</v>
@@ -6385,26 +6672,26 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="18">
         <v>16361</v>
       </c>
       <c r="B118" t="s">
         <v>158</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="17">
         <v>73</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="17">
         <v>119</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="17">
         <v>1</v>
       </c>
       <c r="F118" t="s">
         <v>327</v>
       </c>
-      <c r="G118" s="1">
-        <v>43364</v>
+      <c r="G118" s="12" t="s">
+        <v>820</v>
       </c>
       <c r="H118" t="s">
         <v>97</v>
@@ -6417,26 +6704,26 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+      <c r="A119" s="18">
         <v>16362</v>
       </c>
       <c r="B119" t="s">
         <v>158</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="17">
         <v>73</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="17">
         <v>120</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="17">
         <v>1</v>
       </c>
       <c r="F119" t="s">
         <v>330</v>
       </c>
-      <c r="G119" s="1">
-        <v>43364</v>
+      <c r="G119" s="12" t="s">
+        <v>820</v>
       </c>
       <c r="H119" t="s">
         <v>97</v>
@@ -6449,26 +6736,26 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+      <c r="A120" s="18">
         <v>16363</v>
       </c>
       <c r="B120" t="s">
         <v>158</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="17">
         <v>73</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="17">
         <v>121</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="17">
         <v>1</v>
       </c>
       <c r="F120" t="s">
         <v>333</v>
       </c>
-      <c r="G120" s="1">
-        <v>43364</v>
+      <c r="G120" s="12" t="s">
+        <v>820</v>
       </c>
       <c r="H120" t="s">
         <v>97</v>
@@ -6481,26 +6768,26 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+      <c r="A121" s="18">
         <v>16364</v>
       </c>
       <c r="B121" t="s">
         <v>158</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="17">
         <v>73</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="17">
         <v>122</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="17">
         <v>1</v>
       </c>
       <c r="F121" t="s">
         <v>336</v>
       </c>
-      <c r="G121" s="1">
-        <v>43364</v>
+      <c r="G121" s="12" t="s">
+        <v>820</v>
       </c>
       <c r="H121" t="s">
         <v>337</v>
@@ -6513,26 +6800,26 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="A122" s="18">
         <v>16365</v>
       </c>
       <c r="B122" t="s">
         <v>158</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="17">
         <v>73</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="17">
         <v>123</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="17">
         <v>1</v>
       </c>
       <c r="F122" t="s">
         <v>340</v>
       </c>
-      <c r="G122" s="1">
-        <v>43364</v>
+      <c r="G122" s="12" t="s">
+        <v>820</v>
       </c>
       <c r="H122" t="s">
         <v>69</v>
@@ -6545,26 +6832,26 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+      <c r="A123" s="18">
         <v>16366</v>
       </c>
       <c r="B123" t="s">
         <v>158</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="17">
         <v>73</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="17">
         <v>124</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="17">
         <v>2</v>
       </c>
       <c r="F123" t="s">
         <v>343</v>
       </c>
-      <c r="G123" s="1">
-        <v>43370</v>
+      <c r="G123" s="12" t="s">
+        <v>821</v>
       </c>
       <c r="H123" t="s">
         <v>55</v>
@@ -6577,26 +6864,26 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+      <c r="A124" s="18">
         <v>16367</v>
       </c>
       <c r="B124" t="s">
         <v>158</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="17">
         <v>73</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="17">
         <v>126</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="17">
         <v>2</v>
       </c>
       <c r="F124" t="s">
         <v>346</v>
       </c>
-      <c r="G124" s="1">
-        <v>43375</v>
+      <c r="G124" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="H124" t="s">
         <v>66</v>
@@ -6609,26 +6896,26 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="A125" s="18">
         <v>16368</v>
       </c>
       <c r="B125" t="s">
         <v>158</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="17">
         <v>73</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="17">
         <v>128</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="17">
         <v>1</v>
       </c>
       <c r="F125" t="s">
         <v>349</v>
       </c>
-      <c r="G125" s="1">
-        <v>43375</v>
+      <c r="G125" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="H125" t="s">
         <v>51</v>
@@ -6641,26 +6928,26 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126" s="18">
         <v>16369</v>
       </c>
       <c r="B126" t="s">
         <v>158</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="17">
         <v>73</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="17">
         <v>129</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="17">
         <v>1</v>
       </c>
       <c r="F126" t="s">
         <v>352</v>
       </c>
-      <c r="G126" s="1">
-        <v>43384</v>
+      <c r="G126" s="12" t="s">
+        <v>822</v>
       </c>
       <c r="H126" t="s">
         <v>155</v>
@@ -6673,26 +6960,26 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="A127" s="18">
         <v>16370</v>
       </c>
       <c r="B127" t="s">
         <v>158</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="17">
         <v>73</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="17">
         <v>130</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="17">
         <v>1</v>
       </c>
       <c r="F127" t="s">
         <v>355</v>
       </c>
-      <c r="G127" s="1">
-        <v>43384</v>
+      <c r="G127" s="12" t="s">
+        <v>822</v>
       </c>
       <c r="H127" t="s">
         <v>55</v>
@@ -6705,26 +6992,26 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+      <c r="A128" s="18">
         <v>16371</v>
       </c>
       <c r="B128" t="s">
         <v>158</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="17">
         <v>73</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="17">
         <v>131</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="17">
         <v>2</v>
       </c>
       <c r="F128" t="s">
         <v>358</v>
       </c>
-      <c r="G128" s="1">
-        <v>43402</v>
+      <c r="G128" s="12" t="s">
+        <v>823</v>
       </c>
       <c r="H128" t="s">
         <v>359</v>
@@ -6737,26 +7024,26 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+      <c r="A129" s="18">
         <v>16372</v>
       </c>
       <c r="B129" t="s">
         <v>158</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="17">
         <v>73</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="17">
         <v>133</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="17">
         <v>1</v>
       </c>
       <c r="F129" t="s">
         <v>361</v>
       </c>
-      <c r="G129" s="1">
-        <v>43405</v>
+      <c r="G129" s="12" t="s">
+        <v>824</v>
       </c>
       <c r="H129" t="s">
         <v>55</v>
@@ -6769,26 +7056,26 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+      <c r="A130" s="18">
         <v>16373</v>
       </c>
       <c r="B130" t="s">
         <v>158</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="17">
         <v>73</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="17">
         <v>134</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="17">
         <v>2</v>
       </c>
       <c r="F130" t="s">
         <v>364</v>
       </c>
-      <c r="G130" s="1">
-        <v>43405</v>
+      <c r="G130" s="12" t="s">
+        <v>824</v>
       </c>
       <c r="H130" t="s">
         <v>55</v>
@@ -6801,26 +7088,26 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+      <c r="A131" s="18">
         <v>16374</v>
       </c>
       <c r="B131" t="s">
         <v>158</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="17">
         <v>73</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="17">
         <v>136</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="17">
         <v>1</v>
       </c>
       <c r="F131" t="s">
         <v>367</v>
       </c>
-      <c r="G131" s="1">
-        <v>43423</v>
+      <c r="G131" s="12" t="s">
+        <v>825</v>
       </c>
       <c r="H131" t="s">
         <v>155</v>
@@ -6833,26 +7120,26 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+      <c r="A132" s="18">
         <v>16375</v>
       </c>
       <c r="B132" t="s">
         <v>158</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="17">
         <v>73</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="17">
         <v>137</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="17">
         <v>1</v>
       </c>
       <c r="F132" t="s">
         <v>370</v>
       </c>
-      <c r="G132" s="1">
-        <v>43441</v>
+      <c r="G132" s="12" t="s">
+        <v>789</v>
       </c>
       <c r="H132" t="s">
         <v>97</v>
@@ -6865,26 +7152,26 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+      <c r="A133" s="18">
         <v>16376</v>
       </c>
       <c r="B133" t="s">
         <v>158</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="17">
         <v>73</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="17">
         <v>138</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="17">
         <v>2</v>
       </c>
       <c r="F133" t="s">
         <v>373</v>
       </c>
-      <c r="G133" s="1">
-        <v>43441</v>
+      <c r="G133" s="12" t="s">
+        <v>789</v>
       </c>
       <c r="H133" t="s">
         <v>374</v>
@@ -6897,26 +7184,26 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+      <c r="A134" s="18">
         <v>16377</v>
       </c>
       <c r="B134" t="s">
         <v>158</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="17">
         <v>73</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="17">
         <v>140</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="17">
         <v>1</v>
       </c>
       <c r="F134" t="s">
         <v>377</v>
       </c>
-      <c r="G134" s="1">
-        <v>43441</v>
+      <c r="G134" s="12" t="s">
+        <v>789</v>
       </c>
       <c r="H134" t="s">
         <v>374</v>
@@ -6929,26 +7216,26 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+      <c r="A135" s="18">
         <v>16378</v>
       </c>
       <c r="B135" t="s">
         <v>158</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="17">
         <v>73</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="17">
         <v>141</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="17">
         <v>1</v>
       </c>
       <c r="F135" t="s">
         <v>380</v>
       </c>
-      <c r="G135" s="1">
-        <v>43441</v>
+      <c r="G135" s="12" t="s">
+        <v>789</v>
       </c>
       <c r="H135" t="s">
         <v>374</v>
@@ -6961,26 +7248,26 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+      <c r="A136" s="18">
         <v>16379</v>
       </c>
       <c r="B136" t="s">
         <v>158</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="17">
         <v>73</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="17">
         <v>142</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="17">
         <v>1</v>
       </c>
       <c r="F136" t="s">
         <v>383</v>
       </c>
-      <c r="G136" s="1">
-        <v>43441</v>
+      <c r="G136" s="12" t="s">
+        <v>789</v>
       </c>
       <c r="H136" t="s">
         <v>374</v>
@@ -6993,26 +7280,26 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+      <c r="A137" s="18">
         <v>16380</v>
       </c>
       <c r="B137" t="s">
         <v>158</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="17">
         <v>73</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="17">
         <v>143</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="17">
         <v>1</v>
       </c>
       <c r="F137" t="s">
         <v>386</v>
       </c>
-      <c r="G137" s="1">
-        <v>43441</v>
+      <c r="G137" s="12" t="s">
+        <v>789</v>
       </c>
       <c r="H137" t="s">
         <v>374</v>
@@ -7025,26 +7312,26 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+      <c r="A138" s="18">
         <v>16381</v>
       </c>
       <c r="B138" t="s">
         <v>158</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="17">
         <v>73</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="17">
         <v>144</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="17">
         <v>1</v>
       </c>
       <c r="F138" t="s">
         <v>389</v>
       </c>
-      <c r="G138" s="1">
-        <v>43441</v>
+      <c r="G138" s="12" t="s">
+        <v>789</v>
       </c>
       <c r="H138" t="s">
         <v>17</v>
@@ -7057,26 +7344,26 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="17">
         <v>16315</v>
       </c>
       <c r="B140" t="s">
         <v>392</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="17">
         <v>100</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="17">
         <v>500</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="17">
         <v>1</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="G140" s="1">
-        <v>43278</v>
+      <c r="G140" s="12" t="s">
+        <v>826</v>
       </c>
       <c r="H140" t="s">
         <v>394</v>
@@ -7089,25 +7376,24 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+      <c r="A141" s="18">
         <v>16382</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="18">
         <v>3</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="18">
         <v>153</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="18">
         <v>1</v>
       </c>
       <c r="F141" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="G141" s="5"/>
       <c r="H141" s="3" t="s">
         <v>398</v>
       </c>
@@ -7119,26 +7405,26 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+      <c r="A142" s="18">
         <v>16383</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="18">
         <v>3</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="18">
         <v>158</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="18">
         <v>1</v>
       </c>
       <c r="F142" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="G142" s="4">
-        <v>18342</v>
+      <c r="G142" s="12" t="s">
+        <v>827</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>398</v>
@@ -7151,26 +7437,26 @@
       </c>
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+      <c r="A143" s="18">
         <v>16384</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="18">
         <v>3</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="18">
         <v>211</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="18">
         <v>1</v>
       </c>
       <c r="F143" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G143" s="4">
-        <v>21646</v>
+      <c r="G143" s="12" t="s">
+        <v>828</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>398</v>
@@ -7183,26 +7469,26 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+      <c r="A144" s="18">
         <v>16385</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="18">
         <v>3</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="18">
         <v>326</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="18">
         <v>1</v>
       </c>
       <c r="F144" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G144" s="4">
-        <v>20241</v>
+      <c r="G144" s="12" t="s">
+        <v>829</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>398</v>
@@ -7215,26 +7501,26 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+      <c r="A145" s="18">
         <v>16386</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="18">
         <v>3</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="18">
         <v>341</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="18">
         <v>1</v>
       </c>
       <c r="F145" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="G145" s="4">
-        <v>24139</v>
+      <c r="G145" s="12" t="s">
+        <v>830</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>398</v>
@@ -7247,26 +7533,26 @@
       </c>
     </row>
     <row r="146" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="A146" s="18">
         <v>16387</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="18">
         <v>3</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="18">
         <v>354</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="18">
         <v>1</v>
       </c>
       <c r="F146" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="G146" s="4">
-        <v>12451</v>
+      <c r="G146" s="12" t="s">
+        <v>831</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="3" t="s">
@@ -7277,26 +7563,26 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+      <c r="A147" s="18">
         <v>16388</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="18">
         <v>3</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="18">
         <v>359</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="18">
         <v>1</v>
       </c>
       <c r="F147" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="G147" s="4">
-        <v>17653</v>
+      <c r="G147" s="12" t="s">
+        <v>832</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>398</v>
@@ -7309,26 +7595,26 @@
       </c>
     </row>
     <row r="148" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+      <c r="A148" s="18">
         <v>16389</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="18">
         <v>3</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="18">
         <v>361</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="18">
         <v>1</v>
       </c>
       <c r="F148" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="G148" s="4">
-        <v>18725</v>
+      <c r="G148" s="12" t="s">
+        <v>833</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>398</v>
@@ -7341,26 +7627,26 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+      <c r="A149" s="18">
         <v>16390</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="18">
         <v>3</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="18">
         <v>363</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="18">
         <v>1</v>
       </c>
       <c r="F149" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="G149" s="4">
-        <v>22082</v>
+      <c r="G149" s="12" t="s">
+        <v>834</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>398</v>
@@ -7373,26 +7659,26 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+      <c r="A150" s="18">
         <v>16391</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="18">
         <v>3</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="18">
         <v>365</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="18">
         <v>1</v>
       </c>
       <c r="F150" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="G150" s="4">
-        <v>8583</v>
+      <c r="G150" s="12" t="s">
+        <v>835</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>424</v>
@@ -7405,26 +7691,26 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+      <c r="A151" s="18">
         <v>16392</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="18">
         <v>3</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="18">
         <v>366</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="18">
         <v>1</v>
       </c>
       <c r="F151" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="G151" s="4">
-        <v>20986</v>
+      <c r="G151" s="12" t="s">
+        <v>836</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>398</v>
@@ -7437,26 +7723,26 @@
       </c>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+      <c r="A152" s="18">
         <v>16393</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="18">
         <v>3</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="18">
         <v>367</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="18">
         <v>1</v>
       </c>
       <c r="F152" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="G152" s="4">
-        <v>20477</v>
+      <c r="G152" s="12" t="s">
+        <v>837</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>398</v>
@@ -7469,26 +7755,26 @@
       </c>
     </row>
     <row r="153" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+      <c r="A153" s="18">
         <v>16394</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="18">
         <v>3</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="18">
         <v>371</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="18">
         <v>1</v>
       </c>
       <c r="F153" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="G153" s="4">
-        <v>19605</v>
+      <c r="G153" s="12" t="s">
+        <v>838</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>398</v>
@@ -7501,25 +7787,24 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+      <c r="A154" s="18">
         <v>16395</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="18">
         <v>3</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="18">
         <v>374</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="18">
         <v>1</v>
       </c>
       <c r="F154" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="G154" s="5"/>
       <c r="H154" s="3" t="s">
         <v>398</v>
       </c>
@@ -7531,26 +7816,26 @@
       </c>
     </row>
     <row r="155" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+      <c r="A155" s="18">
         <v>16396</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="18">
         <v>3</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="18">
         <v>385</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="18">
         <v>1</v>
       </c>
       <c r="F155" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="G155" s="4">
-        <v>20363</v>
+      <c r="G155" s="12" t="s">
+        <v>839</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>398</v>
@@ -7563,26 +7848,26 @@
       </c>
     </row>
     <row r="156" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+      <c r="A156" s="18">
         <v>16397</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="18">
         <v>3</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="18">
         <v>402</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="18">
         <v>1</v>
       </c>
       <c r="F156" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="G156" s="4">
-        <v>19599</v>
+      <c r="G156" s="12" t="s">
+        <v>840</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>398</v>
@@ -7595,25 +7880,24 @@
       </c>
     </row>
     <row r="157" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+      <c r="A157" s="18">
         <v>16398</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="18">
         <v>3</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="18">
         <v>406</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="18">
         <v>1</v>
       </c>
       <c r="F157" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="G157" s="5"/>
       <c r="H157" s="3" t="s">
         <v>398</v>
       </c>
@@ -7625,26 +7909,26 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+      <c r="A158" s="18">
         <v>16399</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="18">
         <v>3</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="18">
         <v>462</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="18">
         <v>1</v>
       </c>
       <c r="F158" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="G158" s="4">
-        <v>23713</v>
+      <c r="G158" s="12" t="s">
+        <v>841</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>398</v>
@@ -7657,26 +7941,26 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+      <c r="A159" s="18">
         <v>16400</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="18">
         <v>3</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="18">
         <v>486</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="18">
         <v>1</v>
       </c>
       <c r="F159" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G159" s="4">
-        <v>15585</v>
+      <c r="G159" s="12" t="s">
+        <v>842</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>398</v>
@@ -7689,26 +7973,26 @@
       </c>
     </row>
     <row r="160" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+      <c r="A160" s="18">
         <v>16401</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="18">
         <v>3</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="18">
         <v>507</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="18">
         <v>1</v>
       </c>
       <c r="F160" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="G160" s="4">
-        <v>20221</v>
+      <c r="G160" s="12" t="s">
+        <v>843</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>398</v>
@@ -7721,25 +8005,24 @@
       </c>
     </row>
     <row r="161" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+      <c r="A161" s="18">
         <v>16402</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="18">
         <v>3</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="18">
         <v>552</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="18">
         <v>1</v>
       </c>
       <c r="F161" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="G161" s="5"/>
       <c r="H161" s="3" t="s">
         <v>455</v>
       </c>
@@ -7751,26 +8034,26 @@
       </c>
     </row>
     <row r="162" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+      <c r="A162" s="18">
         <v>16403</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="18">
         <v>3</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="18">
         <v>570</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="18">
         <v>1</v>
       </c>
       <c r="F162" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="G162" s="4">
-        <v>19835</v>
+      <c r="G162" s="12" t="s">
+        <v>844</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>398</v>
@@ -7783,26 +8066,26 @@
       </c>
     </row>
     <row r="163" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+      <c r="A163" s="18">
         <v>16404</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="18">
         <v>3</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="18">
         <v>914</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="18">
         <v>1</v>
       </c>
       <c r="F163" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="G163" s="4">
-        <v>18940</v>
+      <c r="G163" s="12" t="s">
+        <v>845</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>398</v>
@@ -7815,26 +8098,26 @@
       </c>
     </row>
     <row r="164" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+      <c r="A164" s="18">
         <v>16405</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="18">
         <v>3</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="18">
         <v>924</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="18">
         <v>1</v>
       </c>
       <c r="F164" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="G164" s="4">
-        <v>17930</v>
+      <c r="G164" s="12" t="s">
+        <v>846</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>398</v>
@@ -7847,26 +8130,26 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+      <c r="A165" s="18">
         <v>16406</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="18">
         <v>3</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="18">
         <v>932</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="18">
         <v>1</v>
       </c>
       <c r="F165" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="G165" s="4">
-        <v>19532</v>
+      <c r="G165" s="12" t="s">
+        <v>847</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>398</v>
@@ -7879,26 +8162,26 @@
       </c>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+      <c r="A166" s="18">
         <v>16407</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="18">
         <v>3</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="18">
         <v>955</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="18">
         <v>1</v>
       </c>
       <c r="F166" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="G166" s="4">
-        <v>18559</v>
+      <c r="G166" s="12" t="s">
+        <v>848</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>398</v>
@@ -7911,26 +8194,26 @@
       </c>
     </row>
     <row r="167" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+      <c r="A167" s="18">
         <v>16408</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="18">
         <v>4</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="18">
         <v>141</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="18">
         <v>1</v>
       </c>
       <c r="F167" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="G167" s="4">
-        <v>17481</v>
+      <c r="G167" s="12" t="s">
+        <v>849</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>398</v>
@@ -7943,26 +8226,26 @@
       </c>
     </row>
     <row r="168" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+      <c r="A168" s="18">
         <v>16409</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="18">
         <v>4</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="18">
         <v>142</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="18">
         <v>1</v>
       </c>
       <c r="F168" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="G168" s="4">
-        <v>21702</v>
+      <c r="G168" s="12" t="s">
+        <v>850</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>477</v>
@@ -7975,26 +8258,26 @@
       </c>
     </row>
     <row r="169" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+      <c r="A169" s="18">
         <v>16410</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="18">
         <v>4</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="18">
         <v>143</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="18">
         <v>1</v>
       </c>
       <c r="F169" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="G169" s="4">
-        <v>22586</v>
+      <c r="G169" s="12" t="s">
+        <v>851</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>480</v>
@@ -8007,25 +8290,24 @@
       </c>
     </row>
     <row r="170" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+      <c r="A170" s="18">
         <v>16411</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="18">
         <v>5</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="18">
         <v>120</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="18">
         <v>1</v>
       </c>
       <c r="F170" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="G170" s="5"/>
       <c r="H170" s="3" t="s">
         <v>398</v>
       </c>
@@ -8037,26 +8319,26 @@
       </c>
     </row>
     <row r="171" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+      <c r="A171" s="18">
         <v>16412</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="18">
         <v>5</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="18">
         <v>122</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="18">
         <v>1</v>
       </c>
       <c r="F171" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="G171" s="4">
-        <v>19827</v>
+      <c r="G171" s="12" t="s">
+        <v>852</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>398</v>
@@ -8069,25 +8351,25 @@
       </c>
     </row>
     <row r="172" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+      <c r="A172" s="18">
         <v>16413</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="18">
         <v>100</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="18">
         <v>501</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172" s="18">
         <v>1</v>
       </c>
       <c r="F172" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="G172" s="4" t="s">
+      <c r="G172" s="12" t="s">
         <v>489</v>
       </c>
       <c r="H172" s="3" t="s">
@@ -8101,25 +8383,25 @@
       </c>
     </row>
     <row r="173" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+      <c r="A173" s="18">
         <v>16414</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="18">
         <v>100</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="18">
         <v>502</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="18">
         <v>1</v>
       </c>
       <c r="F173" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="G173" s="4" t="s">
+      <c r="G173" s="12" t="s">
         <v>489</v>
       </c>
       <c r="H173" s="3" t="s">
@@ -8133,26 +8415,26 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+      <c r="A174" s="18">
         <v>16415</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="18">
         <v>100</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="18">
         <v>503</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="18">
         <v>1</v>
       </c>
       <c r="F174" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="G174" s="4">
-        <v>42214</v>
+      <c r="G174" s="12" t="s">
+        <v>853</v>
       </c>
       <c r="H174" s="3"/>
       <c r="I174" s="3" t="s">
@@ -8163,16 +8445,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:H48 G52:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>SurveyorFullname</formula1>
-    </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="G49:H51" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>SurveyorFullname</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
